--- a/Data/EC/NIT-9018553976.xlsx
+++ b/Data/EC/NIT-9018553976.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB0113F-AE39-4458-AA6F-5B70E3CAF5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FFAEE9-A4D3-409E-BF05-8ACE64AD616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F1448006-4CFC-48F4-A20E-315E21563889}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{53259F57-A028-45B8-A627-589F2E0FC02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>2410</t>
+  </si>
+  <si>
+    <t>1051447108</t>
+  </si>
+  <si>
+    <t>CARLOS RUBEN PAJARO MEDINA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>8853503</t>
+  </si>
+  <si>
+    <t>RONALD JOSE MORALES RICARDO</t>
+  </si>
+  <si>
+    <t>1192746587</t>
+  </si>
+  <si>
+    <t>FRANCISCO ANDRES MARTINEZ AGUIRRE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -158,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,6 +254,51 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -334,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,19 +444,25 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57AC5BD-B402-EF89-26D0-CAF28D8491DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A0FBC0-C5FA-FC07-B5FB-1ED0CA2D0D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,8 +857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44678823-58D1-4C0D-98E0-90E44E4E8345}">
-  <dimension ref="B2:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C2A52-954E-44B9-ADC1-AB5FA7013B7F}">
+  <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -797,7 +869,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -808,57 +880,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -874,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="6">
         <v>9018553976</v>
       </c>
@@ -887,12 +959,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12133</v>
+        <v>182953</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -903,17 +975,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -940,13 +1012,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -972,34 +1044,103 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="H22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9018553976.xlsx
+++ b/Data/EC/NIT-9018553976.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FFAEE9-A4D3-409E-BF05-8ACE64AD616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EB72A5-2A3D-4071-A447-12D4DEDB87BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{53259F57-A028-45B8-A627-589F2E0FC02F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52634CD1-7F74-4B78-89CF-474FD9D440F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -72,27 +72,6 @@
   </si>
   <si>
     <t>2410</t>
-  </si>
-  <si>
-    <t>1051447108</t>
-  </si>
-  <si>
-    <t>CARLOS RUBEN PAJARO MEDINA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>8853503</t>
-  </si>
-  <si>
-    <t>RONALD JOSE MORALES RICARDO</t>
-  </si>
-  <si>
-    <t>1192746587</t>
-  </si>
-  <si>
-    <t>FRANCISCO ANDRES MARTINEZ AGUIRRE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -179,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -191,6 +170,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -205,19 +199,19 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -235,70 +229,10 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -400,29 +334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,25 +378,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A0FBC0-C5FA-FC07-B5FB-1ED0CA2D0D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383EBDA9-8BF3-84B5-A268-CF3BAA5D34DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,8 +785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C2A52-954E-44B9-ADC1-AB5FA7013B7F}">
-  <dimension ref="B2:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378DE5B5-DE47-4001-AB2C-ACAABFB10F5F}">
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -869,7 +797,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -880,57 +808,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -946,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="6">
         <v>9018553976</v>
       </c>
@@ -959,12 +887,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="7">
-        <v>182953</v>
+        <v>12133</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,17 +903,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1012,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1044,103 +972,34 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="H24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9018553976.xlsx
+++ b/Data/EC/NIT-9018553976.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EB72A5-2A3D-4071-A447-12D4DEDB87BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F0089A-1266-4F56-A047-13C40109949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52634CD1-7F74-4B78-89CF-474FD9D440F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16B412A7-0ED7-460F-A917-BAAF3586E3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -185,7 +183,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -334,29 +334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,13 +375,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +437,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383EBDA9-8BF3-84B5-A268-CF3BAA5D34DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3B1586-2058-A3CE-7438-734DEB18A306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378DE5B5-DE47-4001-AB2C-ACAABFB10F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B79DBE-720E-4B9A-86DA-4529021D3130}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -808,49 +811,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -858,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -874,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="6">
         <v>9018553976</v>
       </c>
@@ -890,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7">
         <v>12133</v>
       </c>
@@ -959,24 +962,24 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>12133</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1300000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,10 +987,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
